--- a/Data_clean/MCAS/Estados_US/Edos_USA_2013/MONTANA_2013.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2013/MONTANA_2013.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,1110 +360,883 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio de Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CHIAPAS</t>
+          <t>Chiapas</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CACAHOATAN</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.9230769230768999E-2</t>
-        </is>
+          <t>Cacahoatan</t>
+        </is>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0.019230769230769</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CHIAPAS Total</t>
+          <t>Chiapas Total</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.9230769230768999E-2</t>
-        </is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0.019230769230769</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CHIHUAHUA</t>
+          <t>Chihuahua</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>HIDALGO DEL PARRAL</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.9230769230768999E-2</t>
-        </is>
+          <t>Hidalgo Del Parral</t>
+        </is>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0.019230769230769</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAUCILLO</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.9230769230768999E-2</t>
-        </is>
+          <t>Saucillo</t>
+        </is>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0.019230769230769</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CHIHUAHUA Total</t>
+          <t>Chihuahua Total</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3.8461538461537999E-2</t>
-        </is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>0.038461538461538</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DISTRITO FEDERAL</t>
+          <t>Distrito Federal</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ALVARO OBREGON</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.9230769230768999E-2</t>
-        </is>
+          <t>Alvaro Obregon</t>
+        </is>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0.019230769230769</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>CUAUHTEMOC</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.9230769230768999E-2</t>
-        </is>
+          <t>Cuauhtemoc</t>
+        </is>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0.019230769230769</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>IZTAPALAPA</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.9230769230768999E-2</t>
-        </is>
+          <t>Iztapalapa</t>
+        </is>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0.019230769230769</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DISTRITO FEDERAL Total</t>
+          <t>Distrito Federal Total</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>5.7692307692308001E-2</t>
-        </is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>0.057692307692308</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DURANGO</t>
+          <t>Durango</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>OTAEZ</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.9230769230768999E-2</t>
-        </is>
+          <t>Otaez</t>
+        </is>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0.019230769230769</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>DURANGO Total</t>
+          <t>Durango Total</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1.9230769230768999E-2</t>
-        </is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0.019230769230769</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>GUANAJUATO</t>
+          <t>Guanajuato</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DOCTOR MORA</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.115384615384615</t>
-        </is>
+          <t>Doctor Mora</t>
+        </is>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>0.115384615384615</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>ROMITA</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>5.7692307692308001E-2</t>
-        </is>
+          <t>Romita</t>
+        </is>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>0.057692307692308</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>GUANAJUATO Total</t>
+          <t>Guanajuato Total</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.17307692307692299</t>
-        </is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C15">
+        <v>9</v>
+      </c>
+      <c r="D15">
+        <v>0.173076923076923</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>GUERRERO</t>
+          <t>Guerrero</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ACAPULCO DE JUAREZ</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1.9230769230768999E-2</t>
-        </is>
+          <t>Acapulco De Juarez</t>
+        </is>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0.019230769230769</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" t="inlineStr">
         <is>
-          <t>COCULA</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1.9230769230768999E-2</t>
-        </is>
+          <t>Cocula</t>
+        </is>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0.019230769230769</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t>PETATLAN</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1.9230769230768999E-2</t>
-        </is>
+          <t>Petatlan</t>
+        </is>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0.019230769230769</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>GUERRERO Total</t>
+          <t>Guerrero Total</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>5.7692307692308001E-2</t>
-        </is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>0.057692307692308</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>HIDALGO</t>
+          <t>Hidalgo</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>PACHUCA DE SOTO</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1.9230769230768999E-2</t>
-        </is>
+          <t>Pachuca De Soto</t>
+        </is>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0.019230769230769</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>HIDALGO Total</t>
+          <t>Hidalgo Total</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>1.9230769230768999E-2</t>
-        </is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0.019230769230769</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>JALISCO</t>
+          <t>Jalisco</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>GUADALAJARA</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>1.9230769230768999E-2</t>
-        </is>
+          <t>Guadalajara</t>
+        </is>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>0.019230769230769</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>TOMATLAN</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>5.7692307692308001E-2</t>
-        </is>
+          <t>Tomatlan</t>
+        </is>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>0.057692307692308</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>JALISCO Total</t>
+          <t>Jalisco Total</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>7.6923076923076997E-2</t>
-        </is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>0.076923076923077</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>MEXICO</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ALMOLOYA DE ALQUISIRAS</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>1.9230769230768999E-2</t>
-        </is>
+          <t>Almoloya De Alquisiras</t>
+        </is>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>0.019230769230769</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>ECATEPEC DE MORELOS</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>1.9230769230768999E-2</t>
-        </is>
+          <t>Ecatepec De Morelos</t>
+        </is>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>0.019230769230769</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>OZUMBA</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>1.9230769230768999E-2</t>
-        </is>
+          <t>Ozumba</t>
+        </is>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>0.019230769230769</v>
       </c>
     </row>
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>5.7692307692308001E-2</t>
-        </is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>0.057692307692308</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>MICHOACAN DE OCAMPO</t>
+          <t>Michoacan De Ocampo</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>APATZINGAN</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>1.9230769230768999E-2</t>
-        </is>
+          <t>Apatzingan</t>
+        </is>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>0.019230769230769</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>AQUILA</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>1.9230769230768999E-2</t>
-        </is>
+          <t>Aquila</t>
+        </is>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>0.019230769230769</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>COENEO</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>5.7692307692308001E-2</t>
-        </is>
+          <t>Coeneo</t>
+        </is>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <v>0.057692307692308</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>LA PIEDAD</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>1.9230769230768999E-2</t>
-        </is>
+          <t>La Piedad</t>
+        </is>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>0.019230769230769</v>
       </c>
     </row>
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>LAZARO CARDENAS</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>1.9230769230768999E-2</t>
-        </is>
+          <t>Lazaro Cardenas</t>
+        </is>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>0.019230769230769</v>
       </c>
     </row>
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>MUGICA</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>1.9230769230768999E-2</t>
-        </is>
+          <t>Mugica</t>
+        </is>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>0.019230769230769</v>
       </c>
     </row>
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>URUAPAN</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>1.9230769230768999E-2</t>
-        </is>
+          <t>Uruapan</t>
+        </is>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>0.019230769230769</v>
       </c>
     </row>
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>0.17307692307692299</t>
-        </is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C36">
+        <v>9</v>
+      </c>
+      <c r="D36">
+        <v>0.173076923076923</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>NAYARIT</t>
+          <t>Nayarit</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>AHUACATLAN</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>1.9230769230768999E-2</t>
-        </is>
+          <t>Ahuacatlan</t>
+        </is>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>0.019230769230769</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>NAYARIT Total</t>
+          <t>Nayarit Total</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>1.9230769230768999E-2</t>
-        </is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>0.019230769230769</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>OAXACA</t>
+          <t>Oaxaca</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>OCOTLAN DE MORELOS</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>3.8461538461537999E-2</t>
-        </is>
+          <t>Ocotlan De Morelos</t>
+        </is>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>0.038461538461538</v>
       </c>
     </row>
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>SAN BERNARDO MIXTEPEC</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>1.9230769230768999E-2</t>
-        </is>
+          <t>San Bernardo Mixtepec</t>
+        </is>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>0.019230769230769</v>
       </c>
     </row>
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>ZAPOTITLAN PALMAS</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>3.8461538461537999E-2</t>
-        </is>
+          <t>Zapotitlan Palmas</t>
+        </is>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>0.038461538461538</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>OAXACA Total</t>
+          <t>Oaxaca Total</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>9.6153846153846007E-2</t>
-        </is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C42">
+        <v>5</v>
+      </c>
+      <c r="D42">
+        <v>0.09615384615384601</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>PUEBLA</t>
+          <t>Puebla</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>CUAUTLANCINGO</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>1.9230769230768999E-2</t>
-        </is>
+          <t>Cuautlancingo</t>
+        </is>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>0.019230769230769</v>
       </c>
     </row>
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>CUYOACO</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>1.9230769230768999E-2</t>
-        </is>
+          <t>Cuyoaco</t>
+        </is>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>0.019230769230769</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>PUEBLA Total</t>
+          <t>Puebla Total</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>3.8461538461537999E-2</t>
-        </is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>0.038461538461538</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SAN LUIS POTOSI</t>
+          <t>San Luis Potosi</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>RIOVERDE</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>1.9230769230768999E-2</t>
-        </is>
+          <t>Rioverde</t>
+        </is>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>0.019230769230769</v>
       </c>
     </row>
     <row r="47">
       <c r="B47" t="inlineStr">
         <is>
-          <t>SAN NICOLAS TOLENTINO</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>3.8461538461537999E-2</t>
-        </is>
+          <t>San Nicolas Tolentino</t>
+        </is>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <v>0.038461538461538</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SAN LUIS POTOSI Total</t>
+          <t>San Luis Potosi Total</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>5.7692307692308001E-2</t>
-        </is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+      <c r="D48">
+        <v>0.057692307692308</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>VERACRUZ DE IGNACIO DE LA LLAVE</t>
+          <t>Veracruz De Ignacio De La Llave</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ACTOPAN</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>1.9230769230768999E-2</t>
-        </is>
+          <t>Actopan</t>
+        </is>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>0.019230769230769</v>
       </c>
     </row>
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>COATZACOALCOS</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>1.9230769230768999E-2</t>
-        </is>
+          <t>Coatzacoalcos</t>
+        </is>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>0.019230769230769</v>
       </c>
     </row>
     <row r="51">
       <c r="B51" t="inlineStr">
         <is>
-          <t>COSCOMATEPEC</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>1.9230769230768999E-2</t>
-        </is>
+          <t>Coscomatepec</t>
+        </is>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>0.019230769230769</v>
       </c>
     </row>
     <row r="52">
       <c r="B52" t="inlineStr">
         <is>
-          <t>POZA RICA DE HIDALGO</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>1.9230769230768999E-2</t>
-        </is>
+          <t>Poza Rica De Hidalgo</t>
+        </is>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>0.019230769230769</v>
       </c>
     </row>
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>7.6923076923076997E-2</t>
-        </is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C53">
+        <v>4</v>
+      </c>
+      <c r="D53">
+        <v>0.076923076923077</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ZACATECAS</t>
+          <t>Zacatecas</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>HUANUSCO</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>1.9230769230768999E-2</t>
-        </is>
+          <t>Huanusco</t>
+        </is>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>0.019230769230769</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ZACATECAS Total</t>
+          <t>Zacatecas Total</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>1.9230769230768999E-2</t>
-        </is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>0.019230769230769</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Mayo del 2014</t>
-        </is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C56">
+        <v>52</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2013/MONTANA_2013.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2013/MONTANA_2013.xlsx
@@ -434,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Saucillo</t>
@@ -483,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Cuauhtemoc</t>
@@ -496,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -581,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Romita</t>
@@ -630,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Cocula</t>
@@ -643,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Petatlan</t>
@@ -728,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Tomatlan</t>
@@ -777,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Ecatepec De Morelos</t>
@@ -790,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Ozumba</t>
@@ -803,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Total</t>
@@ -834,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Aquila</t>
@@ -847,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Coeneo</t>
@@ -860,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>La Piedad</t>
@@ -873,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Lazaro Cardenas</t>
@@ -886,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Mugica</t>
@@ -899,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Uruapan</t>
@@ -912,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Total</t>
@@ -979,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>San Bernardo Mixtepec</t>
@@ -992,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Zapotitlan Palmas</t>
@@ -1041,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Cuyoaco</t>
@@ -1090,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>San Nicolas Tolentino</t>
@@ -1139,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Coatzacoalcos</t>
@@ -1152,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Coscomatepec</t>
@@ -1165,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Poza Rica De Hidalgo</t>
@@ -1178,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Total</t>
